--- a/test/4_tableMerged_MS_experiment.xlsx
+++ b/test/4_tableMerged_MS_experiment.xlsx
@@ -6132,7 +6132,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>180652 // 31306 // 31307 // 31308 // 31309 // 31310 // 31156 // 31175</t>
+          <t>180652 // 31306 // 31307 // 31308 // 31310 // 31309 // 31175 // 31156</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>C36:1 // Behenyl myristoleate // Myristoleyl behenate // Oleyl stearate // Palmitoleyl arachidate // Stearyl oleate // octadecenyl heptadecanoate // Arachidyl palmitoleate</t>
+          <t>C36:1 // Myristoleyl behenate // Stearyl oleate // Arachidyl palmitoleate // octadecenyl heptadecanoate</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
